--- a/data/output/FV2404_FV2310/UTILMD/44116.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44116.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="400">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4969" uniqueCount="400">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1304,6 +1304,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U215" totalsRowShown="0">
+  <autoFilter ref="A1:U215"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1593,7 +1623,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12097,5 +12130,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/44116.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44116.xlsx
@@ -2359,7 +2359,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4889,7 +4889,7 @@
         <v>387</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5051,7 +5051,7 @@
         <v>387</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5455,7 +5455,7 @@
         <v>389</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7733,7 +7733,7 @@
         <v>390</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8495,7 +8495,7 @@
         <v>391</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8945,7 +8945,7 @@
         <v>390</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9107,7 +9107,7 @@
         <v>391</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9255,7 +9255,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9409,7 +9409,7 @@
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9927,7 +9927,7 @@
         <v>390</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10143,7 +10143,7 @@
         <v>392</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10293,7 +10293,7 @@
         <v>393</v>
       </c>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10891,7 +10891,7 @@
         <v>396</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -11303,7 +11303,7 @@
         <v>396</v>
       </c>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11661,7 +11661,7 @@
         <v>397</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11861,7 +11861,7 @@
         <v>398</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12839,7 +12839,7 @@
         <v>399</v>
       </c>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13129,7 +13129,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N213" s="2"/>
